--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ProprietaryDataFiles/Barter_Valid_AudienceMap1.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ProprietaryDataFiles/Barter_Valid_AudienceMap1.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\ProprietaryDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\ProprietaryDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7C88DBBE-5BCA-4E73-B8E1-CB6EDDF3CE21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B66B662-EB31-496F-8E59-4CDCCC4423DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="435" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Barter Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -118,9 +129,6 @@
     <t>MMM YYYY (Optional)</t>
   </si>
   <si>
-    <t>TTNW</t>
-  </si>
-  <si>
     <t>EN</t>
   </si>
   <si>
@@ -146,6 +154,9 @@
   </si>
   <si>
     <t>Some comment</t>
+  </si>
+  <si>
+    <t>TVB</t>
   </si>
 </sst>
 </file>
@@ -1191,17 +1202,21 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="10"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1215,16 +1230,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="10"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
@@ -1453,7 +1464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1505,7 +1516,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1711,7 +1722,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1761,16 +1772,16 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="49" t="str">
+      <c r="D2" s="53"/>
+      <c r="E2" s="51" t="str">
         <f>IF(COUNTA($E$3:$E12) &gt; 0, "Errors", "")</f>
         <v/>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -1796,15 +1807,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -1830,15 +1841,15 @@
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -1866,13 +1877,13 @@
       <c r="B5" s="14">
         <v>43526</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1900,13 +1911,13 @@
       <c r="B6" s="14">
         <v>43590</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1934,13 +1945,13 @@
       <c r="B7" s="15">
         <v>10</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1965,16 +1976,16 @@
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>34</v>
+      <c r="B8" s="43" t="s">
+        <v>33</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2000,15 +2011,15 @@
         <v>14</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2036,13 +2047,13 @@
       <c r="B10" s="16">
         <v>43497</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2070,13 +2081,13 @@
       <c r="B11" s="16">
         <v>43466</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -2102,15 +2113,15 @@
         <v>19</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2237,7 +2248,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
@@ -2303,31 +2314,31 @@
       <c r="Z17" s="34"/>
     </row>
     <row r="18" spans="1:26" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="52">
+      <c r="C18" s="42">
         <v>1</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="42">
         <v>4</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="42">
         <v>3</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="42">
         <v>5</v>
       </c>
-      <c r="G18" s="52" t="s">
-        <v>41</v>
+      <c r="G18" s="42" t="s">
+        <v>40</v>
       </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52" t="s">
-        <v>40</v>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42" t="s">
+        <v>39</v>
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
@@ -34016,28 +34027,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:Z17 A19:Z1048576 K18:Z18">
     <cfRule type="expression" dxfId="9" priority="7">
